--- a/outputs-r202/test-f__Desulfovibrionaceae.xlsx
+++ b/outputs-r202/test-f__Desulfovibrionaceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Row</t>
   </si>
@@ -154,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,14 +164,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,642 +226,642 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.4800125669299057e-12</v>
+        <v>1.5467109823389997e-11</v>
       </c>
       <c r="C2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921909e-13</v>
       </c>
       <c r="D2">
-        <v>5.4718258324280994e-14</v>
+        <v>3.2398411570921909e-13</v>
       </c>
       <c r="E2">
-        <v>5.4718258324280994e-14</v>
+        <v>3.2398411570921909e-13</v>
       </c>
       <c r="F2">
-        <v>5.4718258324280994e-14</v>
+        <v>3.2398411570921909e-13</v>
       </c>
       <c r="G2">
-        <v>5.4718258324280994e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="H2">
-        <v>5.4718258324280994e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="I2">
-        <v>1.4404173081803862e-06</v>
+        <v>1.6678849360377046e-05</v>
       </c>
       <c r="J2">
-        <v>5.4718258324280994e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="K2">
-        <v>0.50575964584688893</v>
+        <v>0.5598576275779984</v>
       </c>
       <c r="L2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="M2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="N2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="O2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="P2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="Q2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="R2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921915e-13</v>
       </c>
       <c r="S2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="T2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="U2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="V2">
-        <v>0.49396333947539894</v>
+        <v>0.43669446713744375</v>
       </c>
       <c r="W2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="X2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="Y2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="Z2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="AA2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="AB2">
-        <v>5.4718258324281007e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="AC2">
-        <v>8.8549584235980133e-05</v>
+        <v>0.00045364060496531553</v>
       </c>
       <c r="AD2">
-        <v>0.00018702467121075198</v>
+        <v>0.0029775858060172135</v>
       </c>
       <c r="AE2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="AF2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="AG2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="AH2">
-        <v>5.4718258324281e-14</v>
+        <v>3.2398411570921899e-13</v>
       </c>
       <c r="AI2">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.029891820274671913</v>
+        <v>0.030051959544081016</v>
       </c>
       <c r="C3">
-        <v>0.029890824081975069</v>
+        <v>0.030040197809788359</v>
       </c>
       <c r="D3">
-        <v>0.029890824081975076</v>
+        <v>0.030040197809788401</v>
       </c>
       <c r="E3">
-        <v>0.029890824081975076</v>
+        <v>0.030040197809788418</v>
       </c>
       <c r="F3">
-        <v>0.029890824081975076</v>
+        <v>0.030040197809788418</v>
       </c>
       <c r="G3">
-        <v>0.029890824081975072</v>
+        <v>0.030040197809788418</v>
       </c>
       <c r="H3">
-        <v>0.029890824081975072</v>
+        <v>0.030040197809788418</v>
       </c>
       <c r="I3">
-        <v>0.029890824081975072</v>
+        <v>0.030040197809788418</v>
       </c>
       <c r="J3">
-        <v>0.029890824081975072</v>
+        <v>0.030040197809788383</v>
       </c>
       <c r="K3">
-        <v>0.029954275549285959</v>
+        <v>0.030106808339136801</v>
       </c>
       <c r="L3">
-        <v>0.029890824081975038</v>
+        <v>0.030040197809788352</v>
       </c>
       <c r="M3">
-        <v>0.029890824081975038</v>
+        <v>0.030040197809788352</v>
       </c>
       <c r="N3">
-        <v>0.029890824081975038</v>
+        <v>0.030040197809788352</v>
       </c>
       <c r="O3">
-        <v>0.029890824081975038</v>
+        <v>0.030040197809788352</v>
       </c>
       <c r="P3">
-        <v>0.029890824081975038</v>
+        <v>0.030040197809788352</v>
       </c>
       <c r="Q3">
-        <v>0.029890824081975038</v>
+        <v>0.030040197809788352</v>
       </c>
       <c r="R3">
-        <v>0.029890824081975038</v>
+        <v>0.030040197809788352</v>
       </c>
       <c r="S3">
-        <v>0.029890824081974975</v>
+        <v>0.030040197809788442</v>
       </c>
       <c r="T3">
-        <v>0.029890824081974982</v>
+        <v>0.030040197809788369</v>
       </c>
       <c r="U3">
-        <v>0.029890824081975003</v>
+        <v>0.03004019780978847</v>
       </c>
       <c r="V3">
-        <v>0.043345810061068926</v>
+        <v>0.038608362252423055</v>
       </c>
       <c r="W3">
-        <v>0.029890824081974982</v>
+        <v>0.030040197809788442</v>
       </c>
       <c r="X3">
-        <v>0.029890824081974972</v>
+        <v>0.030040197809788442</v>
       </c>
       <c r="Y3">
-        <v>0.029890824081974972</v>
+        <v>0.030040197809788411</v>
       </c>
       <c r="Z3">
-        <v>0.029890824081974972</v>
+        <v>0.030040197809788411</v>
       </c>
       <c r="AA3">
-        <v>0.029890824081974986</v>
+        <v>0.030040197809788411</v>
       </c>
       <c r="AB3">
-        <v>0.029890824081975041</v>
+        <v>0.03004019780978846</v>
       </c>
       <c r="AC3">
-        <v>0.02997419573612525</v>
+        <v>0.030067133377837566</v>
       </c>
       <c r="AD3">
-        <v>0.029890824083547023</v>
+        <v>0.030040197812446306</v>
       </c>
       <c r="AE3">
-        <v>0.02989082408197501</v>
+        <v>0.030040197809788453</v>
       </c>
       <c r="AF3">
-        <v>0.029890824081975003</v>
+        <v>0.03004019780978839</v>
       </c>
       <c r="AG3">
-        <v>0.029890824081975007</v>
+        <v>0.03004019780978839</v>
       </c>
       <c r="AH3">
-        <v>0.029890824081975065</v>
+        <v>0.03004019780978839</v>
       </c>
       <c r="AI3">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.3769653951722382e-11</v>
+        <v>2.7972612731277369e-12</v>
       </c>
       <c r="C4">
-        <v>2.9843941369001365e-12</v>
+        <v>2.7972612731272058e-12</v>
       </c>
       <c r="D4">
-        <v>2.9843941369001369e-12</v>
+        <v>2.797261273127205e-12</v>
       </c>
       <c r="E4">
-        <v>2.9843941369001365e-12</v>
+        <v>2.7972612731272046e-12</v>
       </c>
       <c r="F4">
-        <v>2.9843941369001365e-12</v>
+        <v>2.7972612731272046e-12</v>
       </c>
       <c r="G4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272058e-12</v>
       </c>
       <c r="H4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="I4">
-        <v>0.00021412853669200795</v>
+        <v>0.00039609100358930718</v>
       </c>
       <c r="J4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="K4">
-        <v>0.34284205832373404</v>
+        <v>0.34030046095617805</v>
       </c>
       <c r="L4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="M4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="N4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="O4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="P4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="Q4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="R4">
-        <v>2.9843941369001377e-12</v>
+        <v>2.7972612731272062e-12</v>
       </c>
       <c r="S4">
-        <v>2.9843941369001389e-12</v>
+        <v>2.7972612731272026e-12</v>
       </c>
       <c r="T4">
-        <v>2.9843941369001381e-12</v>
+        <v>2.7972612731272026e-12</v>
       </c>
       <c r="U4">
-        <v>2.9843941369001393e-12</v>
+        <v>2.7972612731272038e-12</v>
       </c>
       <c r="V4">
-        <v>0.60231417038296142</v>
+        <v>0.57048750084042921</v>
       </c>
       <c r="W4">
-        <v>2.9843941369001405e-12</v>
+        <v>2.7972612731272038e-12</v>
       </c>
       <c r="X4">
-        <v>2.9843941369001389e-12</v>
+        <v>2.7972612731272026e-12</v>
       </c>
       <c r="Y4">
-        <v>2.9843941369001389e-12</v>
+        <v>2.7972612731272026e-12</v>
       </c>
       <c r="Z4">
-        <v>2.9843941369001389e-12</v>
+        <v>2.7972612731272026e-12</v>
       </c>
       <c r="AA4">
-        <v>2.9843941369001389e-12</v>
+        <v>2.7972612731272026e-12</v>
       </c>
       <c r="AB4">
-        <v>2.9843941369001405e-12</v>
+        <v>2.7972612731272038e-12</v>
       </c>
       <c r="AC4">
-        <v>0.0014946188590566375</v>
+        <v>0.0019112944131488598</v>
       </c>
       <c r="AD4">
-        <v>0.053135023793207212</v>
+        <v>0.086904652708331392</v>
       </c>
       <c r="AE4">
-        <v>2.9843941369001381e-12</v>
+        <v>2.7972612731272046e-12</v>
       </c>
       <c r="AF4">
-        <v>2.9843941369001381e-12</v>
+        <v>2.7972612731272034e-12</v>
       </c>
       <c r="AG4">
-        <v>2.9843941369001381e-12</v>
+        <v>2.7972612731272034e-12</v>
       </c>
       <c r="AH4">
-        <v>2.9843941369001381e-12</v>
+        <v>2.7972612731272046e-12</v>
       </c>
       <c r="AI4">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.029087027531676041</v>
+        <v>0.028923378282302986</v>
       </c>
       <c r="C5">
-        <v>0.029087027531195186</v>
+        <v>0.028923378282209884</v>
       </c>
       <c r="D5">
-        <v>0.029087027531195186</v>
+        <v>0.028923378282209884</v>
       </c>
       <c r="E5">
-        <v>0.029087027531195225</v>
+        <v>0.02892337828220997</v>
       </c>
       <c r="F5">
-        <v>0.029087027531195225</v>
+        <v>0.028923378282209956</v>
       </c>
       <c r="G5">
-        <v>0.029087027531195193</v>
+        <v>0.028923378282209911</v>
       </c>
       <c r="H5">
-        <v>0.029087027531195193</v>
+        <v>0.028923378282209911</v>
       </c>
       <c r="I5">
-        <v>0.029098115226230053</v>
+        <v>0.028950187023700519</v>
       </c>
       <c r="J5">
-        <v>0.02908702753119519</v>
+        <v>0.028923378282209915</v>
       </c>
       <c r="K5">
-        <v>0.067285107122618412</v>
+        <v>0.073123134973835199</v>
       </c>
       <c r="L5">
-        <v>0.02908702753119528</v>
+        <v>0.028923378282209981</v>
       </c>
       <c r="M5">
-        <v>0.029087027531195225</v>
+        <v>0.028923378282209904</v>
       </c>
       <c r="N5">
-        <v>0.029087027531195225</v>
+        <v>0.028923378282209904</v>
       </c>
       <c r="O5">
-        <v>0.029087027531195225</v>
+        <v>0.028923378282209904</v>
       </c>
       <c r="P5">
-        <v>0.029087027531195225</v>
+        <v>0.028923378282209904</v>
       </c>
       <c r="Q5">
-        <v>0.029087027531195225</v>
+        <v>0.028923378282209904</v>
       </c>
       <c r="R5">
-        <v>0.029087027531195225</v>
+        <v>0.028923378282209904</v>
       </c>
       <c r="S5">
-        <v>0.029087027531195186</v>
+        <v>0.028923378282209852</v>
       </c>
       <c r="T5">
-        <v>0.029087027531195186</v>
+        <v>0.028923378282209852</v>
       </c>
       <c r="U5">
-        <v>0.0290870275311952</v>
+        <v>0.028923378282209859</v>
       </c>
       <c r="V5">
-        <v>0.031002943225049089</v>
+        <v>0.030223786460484143</v>
       </c>
       <c r="W5">
-        <v>0.0290870275311952</v>
+        <v>0.028923378282209884</v>
       </c>
       <c r="X5">
-        <v>0.029087027531195166</v>
+        <v>0.028923378282209852</v>
       </c>
       <c r="Y5">
-        <v>0.029087027531195166</v>
+        <v>0.028923378282209852</v>
       </c>
       <c r="Z5">
-        <v>0.029087027531195166</v>
+        <v>0.028923378282209852</v>
       </c>
       <c r="AA5">
-        <v>0.029087027531195166</v>
+        <v>0.028923378282209852</v>
       </c>
       <c r="AB5">
-        <v>0.029087027531195186</v>
+        <v>0.028923378282209894</v>
       </c>
       <c r="AC5">
-        <v>0.029089203871669706</v>
+        <v>0.02892419634782786</v>
       </c>
       <c r="AD5">
-        <v>0.029087859680485908</v>
+        <v>0.028924103292182167</v>
       </c>
       <c r="AE5">
-        <v>0.029087027531195193</v>
+        <v>0.028923378282209918</v>
       </c>
       <c r="AF5">
-        <v>0.029087027531195186</v>
+        <v>0.028923378282209884</v>
       </c>
       <c r="AG5">
-        <v>0.029087027531195186</v>
+        <v>0.028923378282209852</v>
       </c>
       <c r="AH5">
-        <v>0.029087027531195204</v>
+        <v>0.02892337828220987</v>
       </c>
       <c r="AI5">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.1321500388580094e-10</v>
+        <v>2.207503946840051e-10</v>
       </c>
       <c r="C6">
-        <v>6.9930116727210989e-12</v>
+        <v>7.8969703443573332e-12</v>
       </c>
       <c r="D6">
-        <v>6.9930116727210989e-12</v>
+        <v>7.8969703443573332e-12</v>
       </c>
       <c r="E6">
-        <v>6.9930116727210989e-12</v>
+        <v>7.8969703443573332e-12</v>
       </c>
       <c r="F6">
-        <v>6.9930116727210989e-12</v>
+        <v>7.8969703443573332e-12</v>
       </c>
       <c r="G6">
-        <v>6.9930116727210763e-12</v>
+        <v>7.8969703443573364e-12</v>
       </c>
       <c r="H6">
-        <v>6.9930116727210779e-12</v>
+        <v>7.8969703443573477e-12</v>
       </c>
       <c r="I6">
-        <v>0.00026085705574560597</v>
+        <v>0.00067555347268528812</v>
       </c>
       <c r="J6">
-        <v>6.9930116727210739e-12</v>
+        <v>7.896970344357338e-12</v>
       </c>
       <c r="K6">
-        <v>0.48283721046620981</v>
+        <v>0.53723482906570341</v>
       </c>
       <c r="L6">
-        <v>6.9930116727211054e-12</v>
+        <v>7.8969703443568e-12</v>
       </c>
       <c r="M6">
-        <v>6.9930116727211037e-12</v>
+        <v>7.8969703443568e-12</v>
       </c>
       <c r="N6">
-        <v>6.9930116727211037e-12</v>
+        <v>7.8969703443568e-12</v>
       </c>
       <c r="O6">
-        <v>6.9930116727211037e-12</v>
+        <v>7.8969703443568e-12</v>
       </c>
       <c r="P6">
-        <v>6.9930116727211037e-12</v>
+        <v>7.8969703443568e-12</v>
       </c>
       <c r="Q6">
-        <v>6.9930116727211037e-12</v>
+        <v>7.8969703443568e-12</v>
       </c>
       <c r="R6">
-        <v>6.9930116727211037e-12</v>
+        <v>7.8969703443568e-12</v>
       </c>
       <c r="S6">
-        <v>6.9930116727210739e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="T6">
-        <v>6.9930116727210739e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="U6">
-        <v>6.9930116727210739e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="V6">
-        <v>0.4792656390646351</v>
+        <v>0.39441151600857699</v>
       </c>
       <c r="W6">
-        <v>6.9930116727210714e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="X6">
-        <v>6.9930116727210714e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="Y6">
-        <v>6.9930116727210714e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="Z6">
-        <v>6.9930116727210714e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="AA6">
-        <v>6.9930116727210714e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="AB6">
-        <v>6.9930116727210714e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="AC6">
-        <v>0.011048392319873932</v>
+        <v>0.013935118062127707</v>
       </c>
       <c r="AD6">
-        <v>0.026587900391509177</v>
+        <v>0.05374298295693683</v>
       </c>
       <c r="AE6">
-        <v>6.9930116727210763e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="AF6">
-        <v>6.9930116727210739e-12</v>
+        <v>7.8969703443568081e-12</v>
       </c>
       <c r="AG6">
-        <v>6.9930116727210739e-12</v>
+        <v>7.8969703443568081e-12</v>
       </c>
       <c r="AH6">
-        <v>6.9930116727210747e-12</v>
+        <v>7.8969703443568275e-12</v>
       </c>
       <c r="AI6">
         <v>10</v>
